--- a/Make my Trip project Team 5.xlsx
+++ b/Make my Trip project Team 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PPANDE4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5DDF72-EEE6-4D7B-8774-5E9696401605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583755E-3B42-4EDA-B8C5-EFA64193D61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{DDC73FF0-F691-4E9C-9D4E-9C00BAAA5D8B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DDC73FF0-F691-4E9C-9D4E-9C00BAAA5D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="user_stories" sheetId="1" r:id="rId1"/>
@@ -743,10 +743,6 @@
 Actual result Iteration 1</t>
   </si>
   <si>
-    <t xml:space="preserve">        Priyanka
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">      critical</t>
   </si>
   <si>
@@ -2054,30 +2050,10 @@
     <t>As a user, if there is  a new user firstly, you need to select  sign up and register the application.</t>
   </si>
   <si>
-    <t xml:space="preserve">      shusma
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     prasanna
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     prasanna
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      priyanka
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">     poornima
 </t>
   </si>
   <si>
-    <t xml:space="preserve">     poornima
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Summary Report </t>
   </si>
   <si>
@@ -2155,6 +2131,31 @@
   </si>
   <si>
     <t xml:space="preserve">      critical+C3:CC3:C38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        prasanna
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    poornima
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> priyanka
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    priyanka
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     shusma
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     
+     prasanna
+</t>
   </si>
 </sst>
 </file>
@@ -2986,6 +2987,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2995,15 +3029,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3011,22 +3036,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3056,54 +3105,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3433,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D401A-15F3-4FEA-8C97-08A9AD14C55C}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="92" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3468,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>213</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3476,10 +3477,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D3" s="77"/>
     </row>
@@ -3491,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="77"/>
     </row>
@@ -3503,7 +3504,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="77"/>
     </row>
@@ -3515,7 +3516,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3526,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="77"/>
     </row>
@@ -3538,7 +3539,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="77"/>
     </row>
@@ -3550,7 +3551,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="77"/>
     </row>
@@ -3562,7 +3563,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="77"/>
     </row>
@@ -3574,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.35">
@@ -3585,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="77"/>
     </row>
@@ -3597,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="77"/>
     </row>
@@ -3609,55 +3610,55 @@
         <v>14</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="D15" s="77"/>
     </row>
     <row r="16" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="C16" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C17" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>542</v>
-      </c>
       <c r="C18" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="77"/>
     </row>
@@ -3669,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -3680,7 +3681,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="77"/>
     </row>
@@ -3692,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="77"/>
     </row>
@@ -3704,55 +3705,55 @@
         <v>14</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>311</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>312</v>
       </c>
       <c r="D23" s="77"/>
     </row>
     <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="77"/>
     </row>
     <row r="25" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="C25" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D26" s="77"/>
     </row>
@@ -3761,13 +3762,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -3778,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="77"/>
       <c r="G28" s="63"/>
@@ -3791,7 +3792,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" s="77"/>
     </row>
@@ -3803,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="77"/>
     </row>
@@ -3812,84 +3813,84 @@
         <v>42</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="C32" s="21" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>549</v>
-      </c>
       <c r="C33" s="21" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D33" s="77"/>
     </row>
     <row r="34" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="C34" s="21" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D34" s="77"/>
     </row>
     <row r="35" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="78"/>
     </row>
     <row r="37" spans="1:4" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="78"/>
     </row>
@@ -3901,83 +3902,83 @@
         <v>14</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="78"/>
     </row>
     <row r="39" spans="1:4" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D39" s="78"/>
     </row>
     <row r="40" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D41" s="78"/>
     </row>
     <row r="42" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>633</v>
+        <v>213</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="C43" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="118"/>
+        <v>217</v>
+      </c>
+      <c r="D43" s="80"/>
     </row>
     <row r="44" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="118"/>
+        <v>216</v>
+      </c>
+      <c r="D44" s="80"/>
     </row>
     <row r="45" spans="1:4" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
@@ -3987,45 +3988,45 @@
         <v>14</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="D45" s="118"/>
+        <v>311</v>
+      </c>
+      <c r="D45" s="80"/>
     </row>
     <row r="46" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D46" s="118"/>
+        <v>216</v>
+      </c>
+      <c r="D46" s="80"/>
     </row>
     <row r="47" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D47" s="118"/>
+        <v>214</v>
+      </c>
+      <c r="D47" s="80"/>
     </row>
     <row r="48" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="119"/>
+        <v>213</v>
+      </c>
+      <c r="D48" s="81"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="64"/>
@@ -4071,7 +4072,7 @@
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>141</v>
@@ -4079,7 +4080,7 @@
     </row>
     <row r="3" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>142</v>
@@ -4087,7 +4088,7 @@
     </row>
     <row r="4" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>143</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="5" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>145</v>
@@ -4103,7 +4104,7 @@
     </row>
     <row r="6" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>144</v>
@@ -4111,7 +4112,7 @@
     </row>
     <row r="7" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>146</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>147</v>
@@ -4127,15 +4128,15 @@
     </row>
     <row r="9" spans="1:2" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>86</v>
@@ -4143,7 +4144,7 @@
     </row>
     <row r="11" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>90</v>
@@ -4151,39 +4152,39 @@
     </row>
     <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>83</v>
@@ -4191,15 +4192,15 @@
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>90</v>
@@ -4207,39 +4208,39 @@
     </row>
     <row r="19" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23" s="59" t="s">
         <v>83</v>
@@ -4247,7 +4248,7 @@
     </row>
     <row r="24" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>107</v>
@@ -4255,7 +4256,7 @@
     </row>
     <row r="25" spans="1:2" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B25" s="59" t="s">
         <v>90</v>
@@ -4263,7 +4264,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="59" t="s">
         <v>110</v>
@@ -4271,31 +4272,31 @@
     </row>
     <row r="27" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>83</v>
@@ -4303,15 +4304,15 @@
     </row>
     <row r="31" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" s="59" t="s">
         <v>90</v>
@@ -4319,31 +4320,31 @@
     </row>
     <row r="33" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B36" s="59" t="s">
         <v>83</v>
@@ -4351,15 +4352,15 @@
     </row>
     <row r="37" spans="1:2" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B38" s="59" t="s">
         <v>90</v>
@@ -4367,26 +4368,26 @@
     </row>
     <row r="39" spans="1:2" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>44</v>
@@ -4437,30 +4438,30 @@
         <v>202</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="93" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>243</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>129</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2" s="28">
         <v>1</v>
@@ -4470,19 +4471,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="24" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="87"/>
+        <v>249</v>
+      </c>
+      <c r="D3" s="95"/>
       <c r="E3" s="28" t="s">
         <v>127</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G3" s="28">
         <v>4</v>
@@ -4492,19 +4493,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="83" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="85"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="87"/>
+        <v>250</v>
+      </c>
+      <c r="D4" s="95"/>
       <c r="E4" s="32" t="s">
         <v>128</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="28">
         <v>2</v>
@@ -4514,23 +4515,23 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>246</v>
+        <v>251</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>245</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="28">
         <v>2</v>
@@ -4540,19 +4541,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="85"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="87"/>
+        <v>263</v>
+      </c>
+      <c r="D6" s="95"/>
       <c r="E6" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G6" s="28">
         <v>1</v>
@@ -4562,19 +4563,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="85"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="87"/>
+        <v>262</v>
+      </c>
+      <c r="D7" s="95"/>
       <c r="E7" s="33" t="s">
         <v>119</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G7" s="28">
         <v>3</v>
@@ -4584,19 +4585,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="74" x14ac:dyDescent="0.45">
-      <c r="A8" s="85"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="24" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="87"/>
+        <v>261</v>
+      </c>
+      <c r="D8" s="95"/>
       <c r="E8" s="33" t="s">
         <v>120</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G8" s="28">
         <v>6</v>
@@ -4606,23 +4607,23 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>245</v>
+        <v>260</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>244</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="28">
         <v>1</v>
@@ -4632,19 +4633,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="80"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="83"/>
+        <v>259</v>
+      </c>
+      <c r="D10" s="88"/>
       <c r="E10" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="28">
         <v>2</v>
@@ -4654,19 +4655,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="74" x14ac:dyDescent="0.45">
-      <c r="A11" s="80"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="83"/>
+        <v>264</v>
+      </c>
+      <c r="D11" s="88"/>
       <c r="E11" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="28">
         <v>1</v>
@@ -4676,111 +4677,111 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="80"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="83"/>
+        <v>258</v>
+      </c>
+      <c r="D12" s="88"/>
       <c r="E12" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G12" s="28">
         <v>3</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="71.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="80"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="83"/>
+        <v>257</v>
+      </c>
+      <c r="D13" s="88"/>
       <c r="E13" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G13" s="28">
         <v>3</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="80"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="83"/>
+        <v>256</v>
+      </c>
+      <c r="D14" s="88"/>
       <c r="E14" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="28">
         <v>2</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="81"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="89"/>
+      <c r="E15" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="37" t="s">
-        <v>563</v>
-      </c>
       <c r="F15" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="28">
         <v>4</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>248</v>
+        <v>255</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>247</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G16" s="28">
         <v>1</v>
@@ -4790,19 +4791,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="80"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="83"/>
+        <v>252</v>
+      </c>
+      <c r="D17" s="88"/>
       <c r="E17" s="33" t="s">
         <v>124</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="28">
         <v>1</v>
@@ -4812,19 +4813,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="93.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="80"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="83"/>
+        <v>253</v>
+      </c>
+      <c r="D18" s="88"/>
       <c r="E18" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
@@ -4834,111 +4835,111 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="80"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="83"/>
+        <v>254</v>
+      </c>
+      <c r="D19" s="88"/>
       <c r="E19" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="28">
         <v>3</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="80"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" s="83"/>
+        <v>285</v>
+      </c>
+      <c r="D20" s="88"/>
       <c r="E20" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G20" s="28">
         <v>5</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="80"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="83"/>
+        <v>286</v>
+      </c>
+      <c r="D21" s="88"/>
       <c r="E21" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="28">
         <v>2</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="37" t="s">
-        <v>563</v>
-      </c>
       <c r="F22" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="28">
         <v>4</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="84" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>247</v>
+        <v>287</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="28">
         <v>2</v>
@@ -4948,19 +4949,19 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="91"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="83"/>
+        <v>290</v>
+      </c>
+      <c r="D24" s="88"/>
       <c r="E24" s="33" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G24" s="28">
         <v>2</v>
@@ -4970,19 +4971,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="74" x14ac:dyDescent="0.45">
-      <c r="A25" s="91"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="83"/>
+        <v>291</v>
+      </c>
+      <c r="D25" s="88"/>
       <c r="E25" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G25" s="28">
         <v>1</v>
@@ -4992,19 +4993,19 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="91"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="83"/>
+        <v>292</v>
+      </c>
+      <c r="D26" s="88"/>
       <c r="E26" s="37" t="s">
         <v>126</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G26" s="28">
         <v>4</v>
@@ -5014,89 +5015,89 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="91"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="88"/>
+      <c r="E27" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="37" t="s">
-        <v>554</v>
-      </c>
       <c r="F27" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" s="28">
         <v>4</v>
       </c>
       <c r="H27" s="37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="85"/>
+      <c r="B28" s="36" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="91"/>
-      <c r="B28" s="36" t="s">
-        <v>556</v>
-      </c>
       <c r="C28" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="83"/>
+        <v>338</v>
+      </c>
+      <c r="D28" s="88"/>
       <c r="E28" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G28" s="28">
         <v>4</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="96.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="92"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="89"/>
+      <c r="E29" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="37" t="s">
-        <v>558</v>
-      </c>
       <c r="F29" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G29" s="28">
         <v>3</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="73" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="89" t="s">
-        <v>266</v>
+      <c r="A30" s="83" t="s">
+        <v>265</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>245</v>
+        <v>337</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>244</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G30" s="28">
         <v>1</v>
@@ -5106,41 +5107,41 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="80.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="89"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="88"/>
+        <v>338</v>
+      </c>
+      <c r="D31" s="82"/>
       <c r="E31" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G31" s="28">
         <v>2</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="74" x14ac:dyDescent="0.45">
-      <c r="A32" s="89"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" s="88"/>
+        <v>339</v>
+      </c>
+      <c r="D32" s="82"/>
       <c r="E32" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G32" s="28">
         <v>1</v>
@@ -5150,89 +5151,89 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="89"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" s="88"/>
+        <v>340</v>
+      </c>
+      <c r="D33" s="82"/>
       <c r="E33" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="28">
         <v>2</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="89"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" s="88"/>
+        <v>341</v>
+      </c>
+      <c r="D34" s="82"/>
       <c r="E34" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G34" s="28">
         <v>3</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="89"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="88"/>
+        <v>342</v>
+      </c>
+      <c r="D35" s="82"/>
       <c r="E35" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G35" s="28">
         <v>2</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="89" t="s">
-        <v>273</v>
+      <c r="A36" s="83" t="s">
+        <v>272</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>245</v>
+        <v>343</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>244</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G36" s="28">
         <v>1</v>
@@ -5242,41 +5243,41 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="89"/>
+      <c r="A37" s="83"/>
       <c r="B37" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="88"/>
+        <v>344</v>
+      </c>
+      <c r="D37" s="82"/>
       <c r="E37" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G37" s="28">
         <v>2</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="114.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="89"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D38" s="88"/>
+        <v>345</v>
+      </c>
+      <c r="D38" s="82"/>
       <c r="E38" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G38" s="28">
         <v>1</v>
@@ -5286,79 +5287,73 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="89"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D39" s="88"/>
+        <v>346</v>
+      </c>
+      <c r="D39" s="82"/>
       <c r="E39" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="28">
         <v>2</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="89"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="D40" s="88"/>
+        <v>347</v>
+      </c>
+      <c r="D40" s="82"/>
       <c r="E40" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G40" s="28">
         <v>3</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="89"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="D41" s="88"/>
+        <v>348</v>
+      </c>
+      <c r="D41" s="82"/>
       <c r="E41" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G41" s="28">
         <v>2</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="D23:D29"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="D9:D15"/>
@@ -5367,6 +5362,12 @@
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A9:A15"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="D23:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5399,7 +5400,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="44" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>204</v>
@@ -5433,14 +5434,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
-        <v>613</v>
+      <c r="A2" s="96" t="s">
+        <v>612</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>184</v>
@@ -5452,13 +5453,13 @@
         <v>186</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>188</v>
@@ -5471,12 +5472,12 @@
       <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="97" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="93"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>189</v>
@@ -5488,13 +5489,13 @@
         <v>190</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>56</v>
@@ -5507,33 +5508,33 @@
       <c r="N3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="93"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>183</v>
@@ -5543,14 +5544,14 @@
       <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" ht="134" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
-        <v>614</v>
+      <c r="A5" s="96" t="s">
+        <v>613</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>192</v>
@@ -5562,7 +5563,7 @@
         <v>193</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>60</v>
@@ -5581,12 +5582,12 @@
       <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" ht="103" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="93"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>194</v>
@@ -5617,12 +5618,12 @@
       <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="93"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>68</v>
@@ -5637,7 +5638,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>71</v>
@@ -5653,12 +5654,12 @@
       <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>73</v>
@@ -5670,7 +5671,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>76</v>
@@ -5689,14 +5690,14 @@
       <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
-        <v>615</v>
+      <c r="A9" s="96" t="s">
+        <v>614</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>79</v>
@@ -5708,13 +5709,13 @@
         <v>81</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>83</v>
@@ -5727,30 +5728,30 @@
       <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J10" s="18" t="s">
         <v>86</v>
@@ -5763,12 +5764,12 @@
       <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="93"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>87</v>
@@ -5780,13 +5781,13 @@
         <v>89</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>90</v>
@@ -5799,146 +5800,146 @@
       <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="93"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="106" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="93"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>525</v>
-      </c>
       <c r="F15" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="93" t="s">
-        <v>616</v>
+      <c r="A16" s="96" t="s">
+        <v>615</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>91</v>
@@ -5950,13 +5951,13 @@
         <v>93</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>83</v>
@@ -5966,12 +5967,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>95</v>
@@ -5983,13 +5984,13 @@
         <v>97</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>98</v>
@@ -5999,12 +6000,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="93"/>
+      <c r="A18" s="96"/>
       <c r="B18" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>87</v>
@@ -6016,13 +6017,13 @@
         <v>89</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>90</v>
@@ -6032,146 +6033,146 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="93"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="93"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="112" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="93"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>528</v>
-      </c>
       <c r="H22" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>531</v>
-      </c>
       <c r="J22" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="93" t="s">
-        <v>617</v>
+      <c r="A23" s="96" t="s">
+        <v>616</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>100</v>
@@ -6183,13 +6184,13 @@
         <v>102</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>83</v>
@@ -6199,12 +6200,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="113" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="93"/>
+      <c r="A24" s="96"/>
       <c r="B24" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>104</v>
@@ -6216,13 +6217,13 @@
         <v>106</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>107</v>
@@ -6232,12 +6233,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
+      <c r="A25" s="96"/>
       <c r="B25" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>87</v>
@@ -6249,13 +6250,13 @@
         <v>89</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>90</v>
@@ -6265,30 +6266,30 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="93"/>
+      <c r="A26" s="96"/>
       <c r="B26" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>108</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>109</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>110</v>
@@ -6298,129 +6299,129 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
+      <c r="A27" s="96"/>
       <c r="B27" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="I27" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="J27" s="18" t="s">
         <v>508</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>509</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="1:11" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="96"/>
+      <c r="B29" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C29" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="K28" s="17"/>
-    </row>
-    <row r="29" spans="1:11" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="93"/>
-      <c r="B29" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="H29" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="J29" s="18" t="s">
         <v>522</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>523</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="93" t="s">
-        <v>618</v>
+      <c r="A30" s="96" t="s">
+        <v>617</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="F30" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="G30" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="I30" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>83</v>
@@ -6430,45 +6431,45 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="110" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E31" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="93"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>87</v>
@@ -6480,13 +6481,13 @@
         <v>89</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>90</v>
@@ -6496,131 +6497,131 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="121" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="93"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D33" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="I33" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>436</v>
       </c>
       <c r="K33" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="121" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="93"/>
+      <c r="A34" s="96"/>
       <c r="B34" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="F34" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>442</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="121" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="93"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="H35" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="I35" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="J35" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>448</v>
       </c>
       <c r="K35" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="93" t="s">
-        <v>619</v>
+      <c r="A36" s="96" t="s">
+        <v>618</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="G36" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="I36" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>83</v>
@@ -6630,45 +6631,45 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="96.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D37" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="F37" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="G37" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="93"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>87</v>
@@ -6680,13 +6681,13 @@
         <v>89</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J38" s="18" t="s">
         <v>90</v>
@@ -6696,99 +6697,99 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="93"/>
+      <c r="A39" s="96"/>
       <c r="B39" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D39" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="F39" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="G39" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="H39" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>453</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="93"/>
+      <c r="A40" s="96"/>
       <c r="B40" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D40" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="F40" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="G40" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>456</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>457</v>
       </c>
       <c r="K40" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="93"/>
+      <c r="A41" s="96"/>
       <c r="B41" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>540</v>
-      </c>
       <c r="H41" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>182</v>
@@ -6887,7 +6888,7 @@
         <v>164</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>165</v>
@@ -6973,7 +6974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5079F0AC-9E05-4DA5-B18B-A829FD3A2FA2}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -6988,13 +6989,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>565</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>566</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>155</v>
@@ -7002,364 +7003,364 @@
     </row>
     <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="61" t="s">
         <v>568</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="57" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>571</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="57" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>573</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>574</v>
-      </c>
       <c r="D5" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" s="57" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>579</v>
-      </c>
       <c r="D9" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="57" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="57" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="57" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>587</v>
-      </c>
       <c r="D16" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18" s="57" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="57" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="57" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="57" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="57" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C33" s="57" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C34" s="57" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" s="57" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C37" s="57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C38" s="57" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C40" s="57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41" s="57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -7371,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1A37F2-15E2-4A53-B701-45AB567AE9A8}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7386,15 +7387,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="A1" s="97" t="s">
+        <v>630</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
@@ -7424,21 +7425,21 @@
       <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="105" t="s">
-        <v>637</v>
-      </c>
-      <c r="B3" s="108">
+      <c r="A3" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="101">
         <v>40</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>638</v>
-      </c>
-      <c r="D3" s="111">
+        <v>632</v>
+      </c>
+      <c r="D3" s="104">
         <v>36</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
@@ -7450,17 +7451,17 @@
       <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="106"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="68" t="s">
-        <v>639</v>
-      </c>
-      <c r="D4" s="114">
+        <v>633</v>
+      </c>
+      <c r="D4" s="107">
         <v>4</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="66"/>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
@@ -7472,17 +7473,17 @@
       <c r="P4" s="66"/>
     </row>
     <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="69" t="s">
-        <v>645</v>
-      </c>
-      <c r="D5" s="102">
+        <v>639</v>
+      </c>
+      <c r="D5" s="118">
         <v>36</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="66"/>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
@@ -7494,17 +7495,17 @@
       <c r="P5" s="66"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
-        <v>640</v>
-      </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96">
+      <c r="A6" s="110" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112">
         <v>4</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
@@ -7516,17 +7517,17 @@
       <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="94" t="s">
-        <v>641</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="96">
+      <c r="A7" s="110" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112">
         <v>0</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
@@ -7538,17 +7539,17 @@
       <c r="P7" s="66"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
-        <v>642</v>
-      </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96">
+      <c r="A8" s="110" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112">
         <v>0</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
@@ -7560,15 +7561,15 @@
       <c r="P8" s="66"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
-        <v>643</v>
-      </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="97"/>
+      <c r="A9" s="110" t="s">
+        <v>637</v>
+      </c>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -7580,15 +7581,15 @@
       <c r="P9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="98" t="s">
-        <v>644</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
+      <c r="A10" s="114" t="s">
+        <v>638</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
@@ -7612,32 +7613,32 @@
     </row>
     <row r="12" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F12" s="74" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
     </row>
     <row r="13" spans="1:16" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>129</v>
@@ -7662,7 +7663,7 @@
     </row>
     <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" s="71" t="s">
         <v>118</v>
@@ -7687,10 +7688,10 @@
     </row>
     <row r="15" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C15" s="70">
         <v>7</v>
@@ -7702,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G15" s="72">
         <v>0</v>
@@ -7712,10 +7713,10 @@
     </row>
     <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C16" s="72">
         <v>7</v>
@@ -7727,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G16" s="72">
         <v>0</v>
@@ -7737,10 +7738,10 @@
     </row>
     <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A17" s="57" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C17" s="72">
         <v>7</v>
@@ -7762,10 +7763,10 @@
     </row>
     <row r="18" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C18" s="72">
         <v>7</v>
@@ -7777,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G18" s="72">
         <v>0</v>
@@ -7787,10 +7788,10 @@
     </row>
     <row r="19" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C19" s="72">
         <v>7</v>
@@ -7802,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G19" s="72">
         <v>0</v>
@@ -7911,11 +7912,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="A10:B10"/>
@@ -7927,6 +7923,11 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
